--- a/regions/10/vachroba/vachroba.xlsx
+++ b/regions/10/vachroba/vachroba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="6270" windowWidth="22770" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16230" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,11 +61,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,11 +101,26 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,31 +143,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -197,9 +187,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -214,22 +204,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,41 +523,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="77.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="18" width="9.5703125" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="19" width="9.5703125" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -591,9 +578,10 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" s="7" customFormat="1">
-      <c r="A3" s="14"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" s="7" customFormat="1">
+      <c r="A3" s="5"/>
       <c r="B3" s="5">
         <v>2006</v>
       </c>
@@ -639,12 +627,17 @@
       <c r="P3" s="5">
         <v>2020</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="Q3" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="5">
+        <v>2022</v>
+      </c>
       <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" s="7" customFormat="1">
-      <c r="A4" s="15" t="s">
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" s="7" customFormat="1">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
@@ -692,12 +685,17 @@
       <c r="P4" s="1">
         <v>33249.4</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="Q4" s="1">
+        <v>42623.3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>54095.1</v>
+      </c>
       <c r="S4" s="6"/>
-    </row>
-    <row r="5" spans="1:19" s="7" customFormat="1">
-      <c r="A5" s="15" t="s">
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" s="7" customFormat="1">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
@@ -745,118 +743,133 @@
       <c r="P5" s="1">
         <v>6587.2</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="Q5" s="1">
+        <v>8584.1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>11282.6</v>
+      </c>
       <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="1:19" s="7" customFormat="1">
-      <c r="A6" s="15" t="s">
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" s="7" customFormat="1">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>26983</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>29298</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>35838</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <v>45729</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <v>47114</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <v>73354</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <v>79229</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="9">
         <v>82502</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="9">
         <v>94563</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="9">
         <v>104776</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="9">
         <v>112600</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="9">
         <v>122037.19265</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="9">
         <v>132318</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="9">
         <v>137320</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="9">
         <v>136956</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="Q6" s="9">
+        <v>144138</v>
+      </c>
+      <c r="R6" s="9">
+        <v>150900</v>
+      </c>
       <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" s="7" customFormat="1">
-      <c r="A7" s="15" t="s">
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" s="7" customFormat="1">
+      <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>24630</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>28215</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>34375</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>43723</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <v>45125</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <v>68825</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="9">
         <v>74410</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="9">
         <v>78627</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="9">
         <v>89371</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="9">
         <v>96993</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="9">
         <v>106139</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="9">
         <v>112036.86911</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="9">
         <v>123084</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="9">
         <v>132060</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="9">
         <v>131547</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="Q7" s="9">
+        <v>138751</v>
+      </c>
+      <c r="R7" s="9">
+        <v>146292</v>
+      </c>
       <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" s="7" customFormat="1">
-      <c r="A8" s="15" t="s">
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" s="7" customFormat="1">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
@@ -904,12 +917,17 @@
       <c r="P8" s="1">
         <v>1155.9000000000001</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="Q8" s="1">
+        <v>1303.0999999999999</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1531.2</v>
+      </c>
       <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" s="7" customFormat="1">
-      <c r="A9" s="15" t="s">
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" s="7" customFormat="1">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -957,12 +975,17 @@
       <c r="P9" s="1">
         <v>2398.6999999999998</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="Q9" s="1">
+        <v>3081.9</v>
+      </c>
+      <c r="R9" s="1">
+        <v>4019</v>
+      </c>
       <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" s="7" customFormat="1">
-      <c r="A10" s="15" t="s">
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" s="7" customFormat="1">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -1010,12 +1033,17 @@
       <c r="P10" s="1">
         <v>1860.1</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="Q10" s="1">
+        <v>2207.4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>2736.8</v>
+      </c>
       <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" s="7" customFormat="1">
-      <c r="A11" s="15" t="s">
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" s="7" customFormat="1">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -1063,12 +1091,17 @@
       <c r="P11" s="1">
         <v>4188.5</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="Q11" s="1">
+        <v>5502.3</v>
+      </c>
+      <c r="R11" s="1">
+        <v>7263.6</v>
+      </c>
       <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" s="7" customFormat="1">
-      <c r="A12" s="15" t="s">
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" s="7" customFormat="1">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -1116,12 +1149,17 @@
       <c r="P12" s="1">
         <v>529.9</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="Q12" s="1">
+        <v>644.9</v>
+      </c>
+      <c r="R12" s="1">
+        <v>779.8</v>
+      </c>
       <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" s="7" customFormat="1">
-      <c r="A13" s="15" t="s">
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" s="7" customFormat="1">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1169,12 +1207,17 @@
       <c r="P13" s="1">
         <v>29776.3</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="Q13" s="1">
+        <v>37946.1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>54925.7</v>
+      </c>
       <c r="S13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" s="7" customFormat="1">
-      <c r="A14" s="15" t="s">
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" s="7" customFormat="1">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1222,12 +1265,17 @@
       <c r="P14" s="1">
         <v>27516.2</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="Q14" s="1">
+        <v>34996.699999999997</v>
+      </c>
+      <c r="R14" s="1">
+        <v>44890.400000000001</v>
+      </c>
       <c r="S14" s="6"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="16"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="10"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1246,60 +1294,61 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" ht="13.5">
-      <c r="A16" s="17" t="s">
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" s="13" customFormat="1" ht="12.75">
+      <c r="A16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="13.5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" s="13" customFormat="1" ht="12.75">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
     </row>
     <row r="34" spans="7:8">
-      <c r="G34" s="12"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="38" spans="7:8">
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="7:8">
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regions/10/vachroba/vachroba.xlsx
+++ b/regions/10/vachroba/vachroba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16230" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23670" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,20 +523,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="77.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="9.5703125" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="20" width="9.5703125" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
@@ -557,8 +557,9 @@
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="S1" s="15"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -579,8 +580,9 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" s="7" customFormat="1">
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" s="7" customFormat="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5">
         <v>2006</v>
@@ -633,10 +635,13 @@
       <c r="R3" s="5">
         <v>2022</v>
       </c>
-      <c r="S3" s="6"/>
+      <c r="S3" s="5">
+        <v>2023</v>
+      </c>
       <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:20" s="7" customFormat="1">
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" s="7" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -691,10 +696,13 @@
       <c r="R4" s="1">
         <v>54095.1</v>
       </c>
-      <c r="S4" s="6"/>
+      <c r="S4" s="1">
+        <v>62477.8</v>
+      </c>
       <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" s="7" customFormat="1">
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" s="7" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -749,10 +757,13 @@
       <c r="R5" s="1">
         <v>11282.6</v>
       </c>
-      <c r="S5" s="6"/>
+      <c r="S5" s="1">
+        <v>12793.9</v>
+      </c>
       <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" s="7" customFormat="1">
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" s="7" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
@@ -807,10 +818,13 @@
       <c r="R6" s="9">
         <v>150900</v>
       </c>
-      <c r="S6" s="6"/>
+      <c r="S6" s="9">
+        <v>161357</v>
+      </c>
       <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" s="7" customFormat="1">
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" s="7" customFormat="1">
       <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
@@ -865,10 +879,13 @@
       <c r="R7" s="9">
         <v>146292</v>
       </c>
-      <c r="S7" s="6"/>
+      <c r="S7" s="9">
+        <v>154920</v>
+      </c>
       <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="1:20" s="7" customFormat="1">
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" s="7" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
@@ -923,10 +940,13 @@
       <c r="R8" s="1">
         <v>1531.2</v>
       </c>
-      <c r="S8" s="6"/>
+      <c r="S8" s="1">
+        <v>1771.8</v>
+      </c>
       <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" s="7" customFormat="1">
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" s="7" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -981,10 +1001,13 @@
       <c r="R9" s="1">
         <v>4019</v>
       </c>
-      <c r="S9" s="6"/>
+      <c r="S9" s="1">
+        <v>4415.8999999999996</v>
+      </c>
       <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:20" s="7" customFormat="1">
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" s="7" customFormat="1">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -1039,10 +1062,13 @@
       <c r="R10" s="1">
         <v>2736.8</v>
       </c>
-      <c r="S10" s="6"/>
+      <c r="S10" s="1">
+        <v>3363.1</v>
+      </c>
       <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:20" s="7" customFormat="1">
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -1097,10 +1123,13 @@
       <c r="R11" s="1">
         <v>7263.6</v>
       </c>
-      <c r="S11" s="6"/>
+      <c r="S11" s="1">
+        <v>8378</v>
+      </c>
       <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:20" s="7" customFormat="1">
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" s="7" customFormat="1">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -1155,10 +1184,13 @@
       <c r="R12" s="1">
         <v>779.8</v>
       </c>
-      <c r="S12" s="6"/>
+      <c r="S12" s="1">
+        <v>931.6</v>
+      </c>
       <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:20" s="7" customFormat="1">
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" s="7" customFormat="1">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -1213,10 +1245,13 @@
       <c r="R13" s="1">
         <v>54925.7</v>
       </c>
-      <c r="S13" s="6"/>
+      <c r="S13" s="1">
+        <v>54902.8</v>
+      </c>
       <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" s="7" customFormat="1">
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" s="7" customFormat="1">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1271,10 +1306,13 @@
       <c r="R14" s="1">
         <v>44890.400000000001</v>
       </c>
-      <c r="S14" s="6"/>
+      <c r="S14" s="1">
+        <v>50690</v>
+      </c>
       <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="10"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1295,8 +1333,9 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:20" s="13" customFormat="1" ht="12.75">
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" s="13" customFormat="1" ht="12.75">
       <c r="A16" s="11" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1387,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
